--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Path</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053","service_order_id":"","timeline_id":""}</t>
   </si>
   <si>
     <t>ancestors</t>
@@ -167,6 +161,10 @@
   </si>
   <si>
     <t>/hr/v1/formrecords?form=organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -534,16 +532,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -579,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -602,7 +600,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -625,7 +623,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -634,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -655,10 +653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,15 +674,14 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -723,21 +720,18 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -776,21 +770,18 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
         <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -829,16 +820,13 @@
         <v>33</v>
       </c>
       <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
       </c>
       <c r="P3" t="s">
         <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Path</t>
   </si>
@@ -65,9 +65,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>流程1</t>
-  </si>
-  <si>
     <t>parent_organization_ID</t>
   </si>
   <si>
@@ -135,10 +132,6 @@
   </si>
   <si>
     <t>created</t>
-  </si>
-  <si>
-    <t>流程2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CaseID</t>
@@ -164,7 +157,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程2</t>
+    <t>部门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,16 +537,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -560,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,7 +582,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -589,18 +594,18 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -609,21 +614,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -632,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -681,152 +686,152 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Path</t>
   </si>
@@ -50,126 +50,151 @@
     <t>application/json</t>
   </si>
   <si>
+    <t>addSon</t>
+  </si>
+  <si>
+    <t>headcount</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>parent_organization_ID</t>
+  </si>
+  <si>
+    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
+  </si>
+  <si>
+    <t>leader_ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hrbp_ID</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>parent_organization</t>
+  </si>
+  <si>
+    <t>北京微迅</t>
+  </si>
+  <si>
+    <t>in_service_count</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>hrbp</t>
+  </si>
+  <si>
+    <t>is_leaf</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>ancestors</t>
+  </si>
+  <si>
+    <t>["b89d7d04-0f75-11e7-9aa4-00163e007053"]</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_department_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_department_2</t>
+  </si>
+  <si>
+    <t>addDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_organization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrbp_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>addSon</t>
-  </si>
-  <si>
-    <t>headcount</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>parent_organization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
-    <t>leader_ID</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>hrbp_ID</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>leader</t>
-  </si>
-  <si>
-    <t>parent_organization</t>
-  </si>
-  <si>
-    <t>北京微迅</t>
-  </si>
-  <si>
-    <t>in_service_count</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>hrbp</t>
-  </si>
-  <si>
-    <t>is_leaf</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>ancestors</t>
-  </si>
-  <si>
-    <t>["b89d7d04-0f75-11e7-9aa4-00163e007053"]</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>CaseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_department_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_department_2</t>
-  </si>
-  <si>
-    <t>addDepartment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,6 +215,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,18 +243,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,7 +542,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,16 +577,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -557,6 +597,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -566,7 +609,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,7 +617,7 @@
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
@@ -582,71 +625,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -686,152 +729,152 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Path</t>
   </si>
@@ -146,14 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://console.t.upvi.com/bapi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +187,21 @@
   </si>
   <si>
     <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_department_3</t>
+  </si>
+  <si>
+    <t>add_department_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +549,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -606,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,22 +635,22 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,16 +658,16 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -680,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -689,6 +696,29 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -701,10 +731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +752,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -815,10 +845,10 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -868,12 +898,62 @@
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
       </c>
       <c r="P3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>headcount</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>in_service_count</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>hrbp</t>
   </si>
   <si>
@@ -202,6 +196,14 @@
   </si>
   <si>
     <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,16 +586,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -615,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,94 +634,94 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,202 +761,202 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/addDepartment.xlsx
+++ b/sources/case/addDepartment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Path</t>
   </si>
@@ -62,33 +62,21 @@
     <t>parent_organization_ID</t>
   </si>
   <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
     <t>leader_ID</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>hrbp_ID</t>
   </si>
   <si>
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>leader</t>
   </si>
   <si>
     <t>parent_organization</t>
   </si>
   <si>
-    <t>北京微迅</t>
-  </si>
-  <si>
     <t>in_service_count</t>
   </si>
   <si>
@@ -110,15 +98,9 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
     <t>ancestors</t>
   </si>
   <si>
-    <t>["b89d7d04-0f75-11e7-9aa4-00163e007053"]</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -180,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>organization_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,15 +173,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!!Int10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>!!Int0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.parent_organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["$csv{data.Tenant.microfastup.parent_organization_ID}"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.company_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,16 +610,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -617,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,101 +651,97 @@
     <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -735,228 +755,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
         <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
